--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/en/ExportSpecAllergens.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/spec/en/ExportSpecAllergens.xlsx
@@ -651,17 +651,19 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1041,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
